--- a/Wine_Quality/outputs/train_90_test_10/depth_6/wq_train_90_test_10_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_6/wq_train_90_test_10_depth_6_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8110918544194108</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9397590361445783</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8706976744186047</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5857142857142857</v>
+        <v>0.8309608540925267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3203125</v>
+        <v>0.9377510040160643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.8811320754716981</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6878242689334545</v>
+        <v>0.4891081634853877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4478016231593039</v>
+        <v>0.4584170013386881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4776624122360556</v>
+        <v>0.4665501979967389</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.761377187803531</v>
+        <v>0.7619585396809596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7541124591171102</v>
+        <v>0.7771909907004247</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_6/wq_train_90_test_10_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_6/wq_train_90_test_10_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4375</v>
+        <v>0.44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.52</v>
       </c>
       <c r="E2" t="n">
         <v>128</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8309608540925267</v>
+        <v>0.83</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9377510040160643</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8811320754716981</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.8046153846153846</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8046153846153846</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.8046153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8046153846153846</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4891081634853877</v>
+        <v>0.49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4584170013386881</v>
+        <v>0.46</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4665501979967389</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7619585396809596</v>
+        <v>0.76</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8046153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7771909907004247</v>
+        <v>0.78</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
